--- a/Programowanie równoległe/lab_2/pomiary.xlsx
+++ b/Programowanie równoległe/lab_2/pomiary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Programowanie równoległe\lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22AD45-20E7-4D00-A6C0-8D885656A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9364019-E58D-452F-813D-A52516FA188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
-  <si>
-    <t>Wersja DDEBUG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Czas tworzenia wątku (clone)</t>
   </si>
   <si>
     <t>Czas tworzenia procesu (fork)</t>
-  </si>
-  <si>
-    <t>Niezoptymalizowana</t>
   </si>
   <si>
     <t>Pomiar 1</t>
@@ -76,16 +70,13 @@
   <si>
     <t>czas cpu (s)</t>
   </si>
-  <si>
-    <t>Wersja -O3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,19 +107,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -144,6 +134,4441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Clone - wersja do debugowania</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas stnadardowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.308782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30098000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30244500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30406899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DBD-4A9A-87A3-7D263CB195B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas cpu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8061000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1165E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4843333333333332E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DBD-4A9A-87A3-7D263CB195B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas zegarowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55777600000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.542682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.540045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54683433333333342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DBD-4A9A-87A3-7D263CB195B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543778448"/>
+        <c:axId val="543778928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543778448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543778928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543778928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543778448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Clone</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - werjsa zoptymalizowana</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas stnadardowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.29854999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.299313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30154500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29980266666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94A9-42A0-BCFD-34E41025FA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$8:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas cpu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1500999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3568E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7027666666666667E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94A9-42A0-BCFD-34E41025FA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$8:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia wątku (clone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas zegarowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.532003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53299700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53275600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53258533333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94A9-42A0-BCFD-34E41025FA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="658743999"/>
+        <c:axId val="658744479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="658743999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658744479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658744479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658743999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Fork</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - wersja do debugowania</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas stnadardowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.70501800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68891899999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66613999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68669233333333324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A66-46B8-86EE-C65B937DF013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas cpu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.3499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2006000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6274E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1876666666666669E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A66-46B8-86EE-C65B937DF013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas zegarowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.698839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.620512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6494329999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6562613333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A66-46B8-86EE-C65B937DF013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="543778448"/>
+        <c:axId val="543779408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="543778448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543779408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543779408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543778448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Fork</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> - wersja zoptymalizowana</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$8:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas stnadardowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.70618599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70118000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69280600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70005733333333342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A67-4097-BD2C-999422E96311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$8:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas cpu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.234E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8540000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8457999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5077333333333331E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A67-4097-BD2C-999422E96311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$8:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Czas tworzenia procesu (fork)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>czas zegarowy (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pomiar 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pomiar 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Uśredniony wynik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$10:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.681918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7020150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6747843333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A67-4097-BD2C-999422E96311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="474673775"/>
+        <c:axId val="474666575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="474673775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474666575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474666575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474673775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E252CF0-F639-EE25-2013-5A4032287ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF0E386-DB63-8003-7DE2-DAC1A9AF0403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53439CE0-2351-BF47-EF8E-488458F6ACF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2084C1A5-580C-3957-CBF1-831D61971E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,7 +4837,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,138 +4853,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.308782</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1.8061000000000001E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.55777600000000005</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0.70501800000000003</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>7.3499999999999998E-3</v>
       </c>
       <c r="G3">
         <v>1.698839</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.30098000000000003</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>1.5304E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.542682</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.68891899999999995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4.2006000000000002E-2</v>
       </c>
       <c r="G4">
         <v>1.620512</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.30244500000000002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4.1165E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.540045</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0.66613999999999995</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1.6274E-2</v>
       </c>
       <c r="G5">
         <v>1.6494329999999999</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <f>AVERAGE(B3:B5)</f>
         <v>0.30406899999999998</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <f t="shared" ref="C6:D6" si="0">AVERAGE(C3:C5)</f>
         <v>2.4843333333333332E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.54683433333333342</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f>AVERAGE(E3:E5)</f>
         <v>0.68669233333333324</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>AVERAGE(F3:F5)</f>
         <v>2.1876666666666669E-2</v>
       </c>
@@ -567,63 +4985,57 @@
         <f>AVERAGE(G3:G5)</f>
         <v>1.6562613333333334</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.29854999999999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1.6014E-2</v>
       </c>
       <c r="D10">
         <v>0.532003</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.70618599999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>8.234E-3</v>
       </c>
       <c r="G10">
@@ -632,21 +5044,21 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.299313</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.1500999999999999E-2</v>
       </c>
       <c r="D11">
         <v>0.53299700000000005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.70118000000000003</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1.8540000000000001E-2</v>
       </c>
       <c r="G11">
@@ -655,21 +5067,21 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.30154500000000001</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1.3568E-2</v>
       </c>
       <c r="D12">
         <v>0.53275600000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.69280600000000003</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1.8457999999999999E-2</v>
       </c>
       <c r="G12">
@@ -678,39 +5090,39 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
         <f>AVERAGE(B10:B12)</f>
         <v>0.29980266666666666</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f t="shared" ref="C13:D13" si="1">AVERAGE(C10:C12)</f>
         <v>1.7027666666666667E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>0.53258533333333336</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
         <v>0.70005733333333342</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" ref="F13:G13" si="2">AVERAGE(F10:F12)</f>
         <v>1.5077333333333331E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>1.6747843333333334</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -722,5 +5134,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>